--- a/Case11_brazil.xlsx
+++ b/Case11_brazil.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSEP\Desktop\TFG\Codi\Tests\Tests_01_04_07_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSEP\Desktop\TFG\Codi\Tests\Resultats_inicials_01_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Busos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Bus</t>
   </si>
@@ -64,7 +64,13 @@
     <t>tap</t>
   </si>
   <si>
-    <t>shunt</t>
+    <t>shunt re</t>
+  </si>
+  <si>
+    <t>shunt im</t>
+  </si>
+  <si>
+    <t>angle</t>
   </si>
 </sst>
 </file>
@@ -434,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +468,9 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -480,6 +488,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -495,6 +506,9 @@
         <v>6</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -514,6 +528,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -531,6 +548,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -548,6 +568,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -565,6 +588,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -580,6 +606,9 @@
         <v>6</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -599,6 +628,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -616,6 +648,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -633,6 +668,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -648,6 +686,9 @@
         <v>6</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -660,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +729,9 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -709,6 +752,9 @@
       <c r="F2">
         <v>0.94</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -728,6 +774,9 @@
       </c>
       <c r="F3">
         <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,6 +798,9 @@
       <c r="F4">
         <v>0.96499999999999997</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -769,6 +821,9 @@
       <c r="F5">
         <v>0.98</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -788,6 +843,9 @@
       </c>
       <c r="F6">
         <v>0.84</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,6 +867,9 @@
       <c r="F7">
         <v>0.76</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -829,6 +890,9 @@
       <c r="F8">
         <v>0.76</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -848,6 +912,9 @@
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -869,6 +936,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -889,6 +959,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -909,6 +982,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -928,6 +1004,9 @@
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,6 +1028,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -968,6 +1050,9 @@
       </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
